--- a/Regressions_Benchmark.xlsx
+++ b/Regressions_Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce265\Box\Research\Papers, submitted\OilDiscoveries\OilDiscoveries_2024_12_JIE_R&amp;R_2ndRound\DraftAndCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce265\Box\Research\Papers, submitted\OilDiscoveries\OilDiscoveries_2025_06_\DraftAndCode\Code_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D3B7AD-45A1-42E4-B8EE-2F0900A4AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EBC598-DA38-4983-B1FD-5654F11B2661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{461AA758-7F55-41D4-BAEB-6AB6231F4482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{61515E30-9F8A-43F0-B112-3C76F5133578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="604">
   <si>
     <t/>
   </si>
@@ -106,6 +106,42 @@
     <t>(27)</t>
   </si>
   <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>(31)</t>
+  </si>
+  <si>
+    <t>(32)</t>
+  </si>
+  <si>
+    <t>(33)</t>
+  </si>
+  <si>
+    <t>(34)</t>
+  </si>
+  <si>
+    <t>(35)</t>
+  </si>
+  <si>
+    <t>(36)</t>
+  </si>
+  <si>
+    <t>(37)</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>(39)</t>
+  </si>
+  <si>
     <t>VARIABLES</t>
   </si>
   <si>
@@ -124,1081 +160,1594 @@
     <t>ca</t>
   </si>
   <si>
-    <t>FDI</t>
-  </si>
-  <si>
-    <t>primary balance</t>
-  </si>
-  <si>
     <t>net debt</t>
   </si>
   <si>
-    <t>cons</t>
-  </si>
-  <si>
     <t>private</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
+    <t>spreads_res</t>
+  </si>
+  <si>
+    <t>spreads_res_lags</t>
+  </si>
+  <si>
+    <t>gdp_embi</t>
+  </si>
+  <si>
+    <t>ca_embi</t>
+  </si>
+  <si>
+    <t>net debt_embi</t>
+  </si>
+  <si>
+    <t>private_embi</t>
+  </si>
+  <si>
+    <t>government_embi</t>
+  </si>
+  <si>
     <t>ar1</t>
   </si>
   <si>
-    <t>0.628539</t>
-  </si>
-  <si>
-    <t>0.437740</t>
-  </si>
-  <si>
-    <t>0.819337</t>
-  </si>
-  <si>
-    <t>0.879988</t>
-  </si>
-  <si>
-    <t>0.857019</t>
-  </si>
-  <si>
-    <t>0.902956</t>
-  </si>
-  <si>
-    <t>0.517141</t>
-  </si>
-  <si>
-    <t>0.325146</t>
-  </si>
-  <si>
-    <t>0.709137</t>
-  </si>
-  <si>
-    <t>0.969595</t>
-  </si>
-  <si>
-    <t>0.791665</t>
-  </si>
-  <si>
-    <t>1.147525</t>
-  </si>
-  <si>
-    <t>0.456954</t>
-  </si>
-  <si>
-    <t>0.218704</t>
-  </si>
-  <si>
-    <t>0.695205</t>
-  </si>
-  <si>
-    <t>0.833856</t>
-  </si>
-  <si>
-    <t>0.745517</t>
-  </si>
-  <si>
-    <t>0.922194</t>
-  </si>
-  <si>
-    <t>0.849553</t>
-  </si>
-  <si>
-    <t>0.815683</t>
-  </si>
-  <si>
-    <t>0.883423</t>
-  </si>
-  <si>
-    <t>0.802120</t>
-  </si>
-  <si>
-    <t>0.761607</t>
-  </si>
-  <si>
-    <t>0.842633</t>
-  </si>
-  <si>
-    <t>0.804638</t>
-  </si>
-  <si>
-    <t>0.750228</t>
-  </si>
-  <si>
-    <t>0.859048</t>
+    <t>0.625107</t>
+  </si>
+  <si>
+    <t>0.430315</t>
+  </si>
+  <si>
+    <t>0.819899</t>
+  </si>
+  <si>
+    <t>0.792315</t>
+  </si>
+  <si>
+    <t>0.718845</t>
+  </si>
+  <si>
+    <t>0.865785</t>
+  </si>
+  <si>
+    <t>0.642529</t>
+  </si>
+  <si>
+    <t>0.547405</t>
+  </si>
+  <si>
+    <t>0.737653</t>
+  </si>
+  <si>
+    <t>0.829185</t>
+  </si>
+  <si>
+    <t>0.732189</t>
+  </si>
+  <si>
+    <t>0.926181</t>
+  </si>
+  <si>
+    <t>0.628111</t>
+  </si>
+  <si>
+    <t>0.559863</t>
+  </si>
+  <si>
+    <t>0.696359</t>
+  </si>
+  <si>
+    <t>0.551401</t>
+  </si>
+  <si>
+    <t>0.416040</t>
+  </si>
+  <si>
+    <t>0.686762</t>
+  </si>
+  <si>
+    <t>0.632687</t>
+  </si>
+  <si>
+    <t>0.433867</t>
+  </si>
+  <si>
+    <t>0.831506</t>
+  </si>
+  <si>
+    <t>0.586586</t>
+  </si>
+  <si>
+    <t>0.409786</t>
+  </si>
+  <si>
+    <t>0.763386</t>
+  </si>
+  <si>
+    <t>0.807273</t>
+  </si>
+  <si>
+    <t>0.743526</t>
+  </si>
+  <si>
+    <t>0.871020</t>
+  </si>
+  <si>
+    <t>0.579211</t>
+  </si>
+  <si>
+    <t>0.430841</t>
+  </si>
+  <si>
+    <t>0.727581</t>
+  </si>
+  <si>
+    <t>0.816554</t>
+  </si>
+  <si>
+    <t>0.665324</t>
+  </si>
+  <si>
+    <t>0.967784</t>
+  </si>
+  <si>
+    <t>0.723784</t>
+  </si>
+  <si>
+    <t>0.621052</t>
+  </si>
+  <si>
+    <t>0.826517</t>
+  </si>
+  <si>
+    <t>0.638719</t>
+  </si>
+  <si>
+    <t>0.481760</t>
+  </si>
+  <si>
+    <t>0.795678</t>
   </si>
   <si>
     <t>npv</t>
   </si>
   <si>
-    <t>3.06597e-02</t>
-  </si>
-  <si>
-    <t>-2.38128e-02</t>
-  </si>
-  <si>
-    <t>8.51322e-02</t>
-  </si>
-  <si>
-    <t>-6.12065e-04</t>
-  </si>
-  <si>
-    <t>-4.07928e-03</t>
-  </si>
-  <si>
-    <t>2.85515e-03</t>
-  </si>
-  <si>
-    <t>-5.13581e-03</t>
-  </si>
-  <si>
-    <t>-1.65066e-02</t>
-  </si>
-  <si>
-    <t>6.23493e-03</t>
-  </si>
-  <si>
-    <t>4.42586e-03</t>
-  </si>
-  <si>
-    <t>-6.22201e-03</t>
-  </si>
-  <si>
-    <t>1.50737e-02</t>
-  </si>
-  <si>
-    <t>-1.23210e-03</t>
-  </si>
-  <si>
-    <t>-3.86834e-03</t>
-  </si>
-  <si>
-    <t>1.40414e-03</t>
-  </si>
-  <si>
-    <t>3.40956e-02</t>
-  </si>
-  <si>
-    <t>-2.21707e-02</t>
-  </si>
-  <si>
-    <t>9.03619e-02</t>
-  </si>
-  <si>
-    <t>-1.05963e-04</t>
-  </si>
-  <si>
-    <t>-5.82031e-03</t>
-  </si>
-  <si>
-    <t>5.60839e-03</t>
-  </si>
-  <si>
-    <t>3.96018e-04</t>
-  </si>
-  <si>
-    <t>-7.47857e-03</t>
-  </si>
-  <si>
-    <t>8.27060e-03</t>
-  </si>
-  <si>
-    <t>4.95936e-04</t>
-  </si>
-  <si>
-    <t>-1.10119e-02</t>
-  </si>
-  <si>
-    <t>1.20038e-02</t>
+    <t>2.33651e-02</t>
+  </si>
+  <si>
+    <t>-3.15665e-02</t>
+  </si>
+  <si>
+    <t>7.82966e-02</t>
+  </si>
+  <si>
+    <t>-1.33211e-03</t>
+  </si>
+  <si>
+    <t>-6.60254e-03</t>
+  </si>
+  <si>
+    <t>3.93831e-03</t>
+  </si>
+  <si>
+    <t>-3.53169e-03</t>
+  </si>
+  <si>
+    <t>-1.57673e-02</t>
+  </si>
+  <si>
+    <t>8.70394e-03</t>
+  </si>
+  <si>
+    <t>3.42304e-02</t>
+  </si>
+  <si>
+    <t>-2.28883e-02</t>
+  </si>
+  <si>
+    <t>9.13491e-02</t>
+  </si>
+  <si>
+    <t>3.12543e-03</t>
+  </si>
+  <si>
+    <t>-4.42145e-03</t>
+  </si>
+  <si>
+    <t>1.06723e-02</t>
+  </si>
+  <si>
+    <t>-6.23593e-03</t>
+  </si>
+  <si>
+    <t>-2.06750e-02</t>
+  </si>
+  <si>
+    <t>8.20315e-03</t>
+  </si>
+  <si>
+    <t>2.35036e-02</t>
+  </si>
+  <si>
+    <t>-3.12574e-02</t>
+  </si>
+  <si>
+    <t>7.82645e-02</t>
+  </si>
+  <si>
+    <t>1.72380e-02</t>
+  </si>
+  <si>
+    <t>-4.90758e-02</t>
+  </si>
+  <si>
+    <t>8.35518e-02</t>
+  </si>
+  <si>
+    <t>6.80879e-04</t>
+  </si>
+  <si>
+    <t>-8.62234e-03</t>
+  </si>
+  <si>
+    <t>9.98410e-03</t>
+  </si>
+  <si>
+    <t>-3.47309e-02</t>
+  </si>
+  <si>
+    <t>-4.23150e-02</t>
+  </si>
+  <si>
+    <t>-2.71468e-02</t>
+  </si>
+  <si>
+    <t>2.33171e-02</t>
+  </si>
+  <si>
+    <t>-1.64167e-02</t>
+  </si>
+  <si>
+    <t>6.30510e-02</t>
+  </si>
+  <si>
+    <t>-7.45325e-03</t>
+  </si>
+  <si>
+    <t>-4.23501e-02</t>
+  </si>
+  <si>
+    <t>2.74436e-02</t>
+  </si>
+  <si>
+    <t>9.71583e-03</t>
+  </si>
+  <si>
+    <t>-6.24088e-02</t>
+  </si>
+  <si>
+    <t>8.18404e-02</t>
   </si>
   <si>
     <t>npv_1</t>
   </si>
   <si>
-    <t>-1.52327e-02</t>
-  </si>
-  <si>
-    <t>-7.39136e-02</t>
-  </si>
-  <si>
-    <t>4.34481e-02</t>
-  </si>
-  <si>
-    <t>-1.76514e-03</t>
-  </si>
-  <si>
-    <t>-5.21451e-03</t>
-  </si>
-  <si>
-    <t>1.68424e-03</t>
-  </si>
-  <si>
-    <t>-7.11228e-03</t>
-  </si>
-  <si>
-    <t>-2.37570e-02</t>
-  </si>
-  <si>
-    <t>9.53241e-03</t>
-  </si>
-  <si>
-    <t>-1.94643e-02</t>
-  </si>
-  <si>
-    <t>-3.00306e-02</t>
-  </si>
-  <si>
-    <t>-8.89804e-03</t>
-  </si>
-  <si>
-    <t>3.24976e-04</t>
-  </si>
-  <si>
-    <t>-3.67489e-03</t>
-  </si>
-  <si>
-    <t>4.32484e-03</t>
-  </si>
-  <si>
-    <t>1.45616e-02</t>
-  </si>
-  <si>
-    <t>-3.04078e-02</t>
-  </si>
-  <si>
-    <t>5.95310e-02</t>
-  </si>
-  <si>
-    <t>-2.77539e-03</t>
-  </si>
-  <si>
-    <t>-1.17245e-02</t>
-  </si>
-  <si>
-    <t>6.17369e-03</t>
-  </si>
-  <si>
-    <t>-4.49103e-04</t>
-  </si>
-  <si>
-    <t>-1.07845e-02</t>
-  </si>
-  <si>
-    <t>9.88628e-03</t>
-  </si>
-  <si>
-    <t>-8.54998e-03</t>
-  </si>
-  <si>
-    <t>-3.24686e-02</t>
-  </si>
-  <si>
-    <t>1.53686e-02</t>
+    <t>-2.52731e-02</t>
+  </si>
+  <si>
+    <t>-8.31460e-02</t>
+  </si>
+  <si>
+    <t>3.25998e-02</t>
+  </si>
+  <si>
+    <t>-7.43263e-03</t>
+  </si>
+  <si>
+    <t>-1.05573e-02</t>
+  </si>
+  <si>
+    <t>-4.30792e-03</t>
+  </si>
+  <si>
+    <t>-1.81857e-02</t>
+  </si>
+  <si>
+    <t>-3.06738e-02</t>
+  </si>
+  <si>
+    <t>-5.69750e-03</t>
+  </si>
+  <si>
+    <t>1.79888e-02</t>
+  </si>
+  <si>
+    <t>-3.32530e-02</t>
+  </si>
+  <si>
+    <t>6.92306e-02</t>
+  </si>
+  <si>
+    <t>-6.83652e-03</t>
+  </si>
+  <si>
+    <t>-1.97017e-02</t>
+  </si>
+  <si>
+    <t>6.02871e-03</t>
+  </si>
+  <si>
+    <t>-2.51506e-02</t>
+  </si>
+  <si>
+    <t>-6.90225e-02</t>
+  </si>
+  <si>
+    <t>1.87213e-02</t>
+  </si>
+  <si>
+    <t>-2.23750e-02</t>
+  </si>
+  <si>
+    <t>-8.58416e-02</t>
+  </si>
+  <si>
+    <t>4.10915e-02</t>
+  </si>
+  <si>
+    <t>3.69081e-02</t>
+  </si>
+  <si>
+    <t>-9.86137e-02</t>
+  </si>
+  <si>
+    <t>0.172430</t>
+  </si>
+  <si>
+    <t>3.80943e-02</t>
+  </si>
+  <si>
+    <t>6.27748e-03</t>
+  </si>
+  <si>
+    <t>6.99111e-02</t>
+  </si>
+  <si>
+    <t>-9.04634e-03</t>
+  </si>
+  <si>
+    <t>-2.60950e-02</t>
+  </si>
+  <si>
+    <t>8.00227e-03</t>
+  </si>
+  <si>
+    <t>4.72889e-02</t>
+  </si>
+  <si>
+    <t>-1.02567e-02</t>
+  </si>
+  <si>
+    <t>0.104835</t>
+  </si>
+  <si>
+    <t>3.33374e-02</t>
+  </si>
+  <si>
+    <t>-1.91765e-03</t>
+  </si>
+  <si>
+    <t>6.85924e-02</t>
+  </si>
+  <si>
+    <t>9.48777e-02</t>
+  </si>
+  <si>
+    <t>-2.49553e-02</t>
+  </si>
+  <si>
+    <t>0.214711</t>
   </si>
   <si>
     <t>npv_2</t>
   </si>
   <si>
-    <t>5.09733e-02</t>
-  </si>
-  <si>
-    <t>-2.31038e-02</t>
-  </si>
-  <si>
-    <t>0.125050</t>
-  </si>
-  <si>
-    <t>9.92872e-04</t>
-  </si>
-  <si>
-    <t>-2.90083e-03</t>
-  </si>
-  <si>
-    <t>4.88657e-03</t>
-  </si>
-  <si>
-    <t>-2.27499e-02</t>
-  </si>
-  <si>
-    <t>-4.64819e-02</t>
-  </si>
-  <si>
-    <t>9.82014e-04</t>
-  </si>
-  <si>
-    <t>-2.60104e-02</t>
-  </si>
-  <si>
-    <t>-4.67654e-02</t>
-  </si>
-  <si>
-    <t>-5.25530e-03</t>
-  </si>
-  <si>
-    <t>-3.34204e-03</t>
-  </si>
-  <si>
-    <t>-7.32089e-03</t>
-  </si>
-  <si>
-    <t>6.36808e-04</t>
-  </si>
-  <si>
-    <t>2.61346e-02</t>
-  </si>
-  <si>
-    <t>-1.29644e-02</t>
-  </si>
-  <si>
-    <t>6.52337e-02</t>
-  </si>
-  <si>
-    <t>6.63579e-03</t>
-  </si>
-  <si>
-    <t>-3.53225e-03</t>
-  </si>
-  <si>
-    <t>1.68038e-02</t>
-  </si>
-  <si>
-    <t>7.40384e-03</t>
-  </si>
-  <si>
-    <t>-2.45369e-03</t>
-  </si>
-  <si>
-    <t>1.72614e-02</t>
-  </si>
-  <si>
-    <t>1.38129e-02</t>
-  </si>
-  <si>
-    <t>-2.71476e-02</t>
-  </si>
-  <si>
-    <t>5.47735e-02</t>
+    <t>3.63226e-02</t>
+  </si>
+  <si>
+    <t>-2.80264e-02</t>
+  </si>
+  <si>
+    <t>0.100672</t>
+  </si>
+  <si>
+    <t>-9.75323e-04</t>
+  </si>
+  <si>
+    <t>-1.42688e-02</t>
+  </si>
+  <si>
+    <t>1.23182e-02</t>
+  </si>
+  <si>
+    <t>-2.40250e-02</t>
+  </si>
+  <si>
+    <t>-5.32107e-02</t>
+  </si>
+  <si>
+    <t>5.16064e-03</t>
+  </si>
+  <si>
+    <t>2.57235e-02</t>
+  </si>
+  <si>
+    <t>-1.34208e-02</t>
+  </si>
+  <si>
+    <t>6.48677e-02</t>
+  </si>
+  <si>
+    <t>-3.26607e-03</t>
+  </si>
+  <si>
+    <t>-1.33355e-02</t>
+  </si>
+  <si>
+    <t>6.80339e-03</t>
+  </si>
+  <si>
+    <t>8.78261e-03</t>
+  </si>
+  <si>
+    <t>-3.26499e-02</t>
+  </si>
+  <si>
+    <t>5.02151e-02</t>
+  </si>
+  <si>
+    <t>4.89054e-02</t>
+  </si>
+  <si>
+    <t>-3.28517e-02</t>
+  </si>
+  <si>
+    <t>0.130663</t>
+  </si>
+  <si>
+    <t>0.142814</t>
+  </si>
+  <si>
+    <t>-6.59885e-02</t>
+  </si>
+  <si>
+    <t>0.351617</t>
+  </si>
+  <si>
+    <t>3.66469e-02</t>
+  </si>
+  <si>
+    <t>1.83689e-02</t>
+  </si>
+  <si>
+    <t>5.49249e-02</t>
+  </si>
+  <si>
+    <t>-5.78298e-03</t>
+  </si>
+  <si>
+    <t>-1.47990e-02</t>
+  </si>
+  <si>
+    <t>3.23308e-03</t>
+  </si>
+  <si>
+    <t>-3.54690e-03</t>
+  </si>
+  <si>
+    <t>-9.74776e-03</t>
+  </si>
+  <si>
+    <t>2.65397e-03</t>
+  </si>
+  <si>
+    <t>-2.23977e-02</t>
+  </si>
+  <si>
+    <t>-7.46860e-02</t>
+  </si>
+  <si>
+    <t>2.98906e-02</t>
+  </si>
+  <si>
+    <t>-6.18198e-02</t>
+  </si>
+  <si>
+    <t>-0.137458</t>
+  </si>
+  <si>
+    <t>1.38179e-02</t>
   </si>
   <si>
     <t>npv_3</t>
   </si>
   <si>
-    <t>4.19074e-02</t>
-  </si>
-  <si>
-    <t>-4.77878e-02</t>
-  </si>
-  <si>
-    <t>0.131603</t>
-  </si>
-  <si>
-    <t>4.51522e-03</t>
-  </si>
-  <si>
-    <t>-4.49499e-03</t>
-  </si>
-  <si>
-    <t>1.35254e-02</t>
-  </si>
-  <si>
-    <t>-1.10140e-02</t>
-  </si>
-  <si>
-    <t>-2.57096e-02</t>
-  </si>
-  <si>
-    <t>3.68157e-03</t>
-  </si>
-  <si>
-    <t>-1.10193e-02</t>
-  </si>
-  <si>
-    <t>-2.80532e-02</t>
-  </si>
-  <si>
-    <t>6.01463e-03</t>
-  </si>
-  <si>
-    <t>2.94610e-03</t>
-  </si>
-  <si>
-    <t>-4.44237e-03</t>
-  </si>
-  <si>
-    <t>1.03346e-02</t>
-  </si>
-  <si>
-    <t>3.39263e-02</t>
-  </si>
-  <si>
-    <t>1.17663e-02</t>
-  </si>
-  <si>
-    <t>5.60863e-02</t>
-  </si>
-  <si>
-    <t>-2.00374e-03</t>
-  </si>
-  <si>
-    <t>-1.86024e-02</t>
-  </si>
-  <si>
-    <t>1.45949e-02</t>
-  </si>
-  <si>
-    <t>-5.86437e-03</t>
-  </si>
-  <si>
-    <t>-2.91981e-02</t>
-  </si>
-  <si>
-    <t>1.74694e-02</t>
-  </si>
-  <si>
-    <t>1.39368e-02</t>
-  </si>
-  <si>
-    <t>-1.49926e-02</t>
-  </si>
-  <si>
-    <t>4.28661e-02</t>
+    <t>2.81370e-02</t>
+  </si>
+  <si>
+    <t>-5.61852e-02</t>
+  </si>
+  <si>
+    <t>0.112459</t>
+  </si>
+  <si>
+    <t>8.96713e-03</t>
+  </si>
+  <si>
+    <t>-3.34012e-03</t>
+  </si>
+  <si>
+    <t>2.12744e-02</t>
+  </si>
+  <si>
+    <t>4.88975e-03</t>
+  </si>
+  <si>
+    <t>-1.02752e-02</t>
+  </si>
+  <si>
+    <t>2.00547e-02</t>
+  </si>
+  <si>
+    <t>3.41701e-02</t>
+  </si>
+  <si>
+    <t>1.28944e-02</t>
+  </si>
+  <si>
+    <t>5.54458e-02</t>
+  </si>
+  <si>
+    <t>-4.14383e-03</t>
+  </si>
+  <si>
+    <t>-3.46332e-02</t>
+  </si>
+  <si>
+    <t>2.63456e-02</t>
+  </si>
+  <si>
+    <t>2.52434e-02</t>
+  </si>
+  <si>
+    <t>-1.23501e-02</t>
+  </si>
+  <si>
+    <t>6.28368e-02</t>
+  </si>
+  <si>
+    <t>4.79834e-02</t>
+  </si>
+  <si>
+    <t>-8.06073e-02</t>
+  </si>
+  <si>
+    <t>0.176574</t>
+  </si>
+  <si>
+    <t>0.200940</t>
+  </si>
+  <si>
+    <t>-0.144297</t>
+  </si>
+  <si>
+    <t>0.546177</t>
+  </si>
+  <si>
+    <t>3.07990e-02</t>
+  </si>
+  <si>
+    <t>1.43552e-02</t>
+  </si>
+  <si>
+    <t>4.72428e-02</t>
+  </si>
+  <si>
+    <t>-7.92916e-04</t>
+  </si>
+  <si>
+    <t>-8.37813e-03</t>
+  </si>
+  <si>
+    <t>6.79229e-03</t>
+  </si>
+  <si>
+    <t>1.60395e-02</t>
+  </si>
+  <si>
+    <t>5.03464e-03</t>
+  </si>
+  <si>
+    <t>2.70443e-02</t>
+  </si>
+  <si>
+    <t>-2.66780e-03</t>
+  </si>
+  <si>
+    <t>-5.04464e-02</t>
+  </si>
+  <si>
+    <t>4.51108e-02</t>
+  </si>
+  <si>
+    <t>-2.17359e-02</t>
+  </si>
+  <si>
+    <t>-8.46583e-02</t>
+  </si>
+  <si>
+    <t>4.11865e-02</t>
   </si>
   <si>
     <t>npv_4</t>
   </si>
   <si>
-    <t>8.67348e-02</t>
-  </si>
-  <si>
-    <t>-1.56107e-02</t>
-  </si>
-  <si>
-    <t>0.189080</t>
-  </si>
-  <si>
-    <t>5.93637e-03</t>
-  </si>
-  <si>
-    <t>-2.25605e-03</t>
-  </si>
-  <si>
-    <t>1.41288e-02</t>
-  </si>
-  <si>
-    <t>-1.22981e-02</t>
-  </si>
-  <si>
-    <t>-3.79108e-02</t>
-  </si>
-  <si>
-    <t>1.33146e-02</t>
-  </si>
-  <si>
-    <t>-4.40413e-03</t>
-  </si>
-  <si>
-    <t>-2.36822e-02</t>
-  </si>
-  <si>
-    <t>1.48739e-02</t>
-  </si>
-  <si>
-    <t>-1.25529e-02</t>
-  </si>
-  <si>
-    <t>-2.36224e-02</t>
-  </si>
-  <si>
-    <t>-1.48344e-03</t>
-  </si>
-  <si>
-    <t>1.28645e-02</t>
-  </si>
-  <si>
-    <t>-2.64001e-03</t>
-  </si>
-  <si>
-    <t>2.83691e-02</t>
-  </si>
-  <si>
-    <t>2.35610e-03</t>
-  </si>
-  <si>
-    <t>-1.04652e-02</t>
-  </si>
-  <si>
-    <t>1.51774e-02</t>
-  </si>
-  <si>
-    <t>6.33964e-03</t>
-  </si>
-  <si>
-    <t>-1.45555e-02</t>
-  </si>
-  <si>
-    <t>2.72347e-02</t>
-  </si>
-  <si>
-    <t>-3.83362e-04</t>
-  </si>
-  <si>
-    <t>-4.22630e-02</t>
-  </si>
-  <si>
-    <t>4.14963e-02</t>
+    <t>7.39006e-02</t>
+  </si>
+  <si>
+    <t>-2.78639e-02</t>
+  </si>
+  <si>
+    <t>0.175665</t>
+  </si>
+  <si>
+    <t>6.56200e-03</t>
+  </si>
+  <si>
+    <t>-9.05774e-03</t>
+  </si>
+  <si>
+    <t>2.21817e-02</t>
+  </si>
+  <si>
+    <t>-2.06593e-02</t>
+  </si>
+  <si>
+    <t>-4.81065e-02</t>
+  </si>
+  <si>
+    <t>6.78787e-03</t>
+  </si>
+  <si>
+    <t>1.23866e-02</t>
+  </si>
+  <si>
+    <t>-3.68742e-03</t>
+  </si>
+  <si>
+    <t>2.84607e-02</t>
+  </si>
+  <si>
+    <t>5.15404e-03</t>
+  </si>
+  <si>
+    <t>-2.26592e-02</t>
+  </si>
+  <si>
+    <t>3.29673e-02</t>
+  </si>
+  <si>
+    <t>1.74928e-02</t>
+  </si>
+  <si>
+    <t>-4.04488e-02</t>
+  </si>
+  <si>
+    <t>7.54343e-02</t>
+  </si>
+  <si>
+    <t>8.86461e-02</t>
+  </si>
+  <si>
+    <t>-4.09427e-02</t>
+  </si>
+  <si>
+    <t>0.218235</t>
+  </si>
+  <si>
+    <t>0.256165</t>
+  </si>
+  <si>
+    <t>-0.109964</t>
+  </si>
+  <si>
+    <t>0.622293</t>
+  </si>
+  <si>
+    <t>2.97789e-02</t>
+  </si>
+  <si>
+    <t>1.62891e-02</t>
+  </si>
+  <si>
+    <t>4.32687e-02</t>
+  </si>
+  <si>
+    <t>-9.48740e-04</t>
+  </si>
+  <si>
+    <t>-9.04203e-03</t>
+  </si>
+  <si>
+    <t>7.14455e-03</t>
+  </si>
+  <si>
+    <t>-2.55233e-04</t>
+  </si>
+  <si>
+    <t>-1.50870e-02</t>
+  </si>
+  <si>
+    <t>1.45765e-02</t>
+  </si>
+  <si>
+    <t>-6.25664e-03</t>
+  </si>
+  <si>
+    <t>-4.66146e-02</t>
+  </si>
+  <si>
+    <t>3.41013e-02</t>
+  </si>
+  <si>
+    <t>4.36844e-03</t>
+  </si>
+  <si>
+    <t>-6.97012e-02</t>
+  </si>
+  <si>
+    <t>7.84380e-02</t>
   </si>
   <si>
     <t>npv_5</t>
   </si>
   <si>
-    <t>8.62322e-02</t>
-  </si>
-  <si>
-    <t>-4.49999e-02</t>
-  </si>
-  <si>
-    <t>0.217464</t>
-  </si>
-  <si>
-    <t>1.48075e-02</t>
-  </si>
-  <si>
-    <t>1.16654e-03</t>
-  </si>
-  <si>
-    <t>2.84484e-02</t>
-  </si>
-  <si>
-    <t>-1.58871e-02</t>
-  </si>
-  <si>
-    <t>-2.70528e-02</t>
-  </si>
-  <si>
-    <t>-4.72151e-03</t>
-  </si>
-  <si>
-    <t>4.17410e-03</t>
-  </si>
-  <si>
-    <t>-9.96946e-03</t>
-  </si>
-  <si>
-    <t>1.83177e-02</t>
-  </si>
-  <si>
-    <t>-5.45006e-03</t>
-  </si>
-  <si>
-    <t>-1.43006e-02</t>
-  </si>
-  <si>
-    <t>3.40050e-03</t>
-  </si>
-  <si>
-    <t>2.48488e-02</t>
-  </si>
-  <si>
-    <t>3.51481e-03</t>
-  </si>
-  <si>
-    <t>4.61828e-02</t>
-  </si>
-  <si>
-    <t>-1.72895e-03</t>
-  </si>
-  <si>
-    <t>-9.28359e-03</t>
-  </si>
-  <si>
-    <t>5.82569e-03</t>
-  </si>
-  <si>
-    <t>-5.15168e-03</t>
-  </si>
-  <si>
-    <t>-1.34660e-02</t>
-  </si>
-  <si>
-    <t>3.16268e-03</t>
-  </si>
-  <si>
-    <t>1.12501e-02</t>
-  </si>
-  <si>
-    <t>-6.48431e-03</t>
-  </si>
-  <si>
-    <t>2.89846e-02</t>
+    <t>7.39116e-02</t>
+  </si>
+  <si>
+    <t>-6.64488e-02</t>
+  </si>
+  <si>
+    <t>0.214272</t>
+  </si>
+  <si>
+    <t>1.31850e-02</t>
+  </si>
+  <si>
+    <t>-1.43062e-03</t>
+  </si>
+  <si>
+    <t>2.78006e-02</t>
+  </si>
+  <si>
+    <t>-1.28955e-02</t>
+  </si>
+  <si>
+    <t>-2.79461e-02</t>
+  </si>
+  <si>
+    <t>2.15507e-03</t>
+  </si>
+  <si>
+    <t>2.39948e-02</t>
+  </si>
+  <si>
+    <t>2.79900e-03</t>
+  </si>
+  <si>
+    <t>4.51905e-02</t>
+  </si>
+  <si>
+    <t>-3.05465e-03</t>
+  </si>
+  <si>
+    <t>-1.71243e-02</t>
+  </si>
+  <si>
+    <t>1.10150e-02</t>
+  </si>
+  <si>
+    <t>2.14846e-02</t>
+  </si>
+  <si>
+    <t>-1.05776e-02</t>
+  </si>
+  <si>
+    <t>5.35468e-02</t>
+  </si>
+  <si>
+    <t>9.38283e-02</t>
+  </si>
+  <si>
+    <t>-9.03379e-02</t>
+  </si>
+  <si>
+    <t>0.277994</t>
+  </si>
+  <si>
+    <t>0.267845</t>
+  </si>
+  <si>
+    <t>-0.167783</t>
+  </si>
+  <si>
+    <t>0.703474</t>
+  </si>
+  <si>
+    <t>3.03813e-02</t>
+  </si>
+  <si>
+    <t>1.86142e-02</t>
+  </si>
+  <si>
+    <t>4.21484e-02</t>
+  </si>
+  <si>
+    <t>-1.24461e-02</t>
+  </si>
+  <si>
+    <t>-1.97325e-02</t>
+  </si>
+  <si>
+    <t>-5.15967e-03</t>
+  </si>
+  <si>
+    <t>-8.57311e-04</t>
+  </si>
+  <si>
+    <t>-1.74265e-02</t>
+  </si>
+  <si>
+    <t>1.57119e-02</t>
+  </si>
+  <si>
+    <t>-5.28733e-03</t>
+  </si>
+  <si>
+    <t>-4.11810e-02</t>
+  </si>
+  <si>
+    <t>3.06064e-02</t>
+  </si>
+  <si>
+    <t>-1.70521e-02</t>
+  </si>
+  <si>
+    <t>-6.77903e-02</t>
+  </si>
+  <si>
+    <t>3.36862e-02</t>
   </si>
   <si>
     <t>npv_6</t>
   </si>
   <si>
-    <t>0.155869</t>
-  </si>
-  <si>
-    <t>-7.09416e-03</t>
-  </si>
-  <si>
-    <t>0.318833</t>
-  </si>
-  <si>
-    <t>1.25669e-02</t>
-  </si>
-  <si>
-    <t>2.01335e-03</t>
-  </si>
-  <si>
-    <t>2.31205e-02</t>
-  </si>
-  <si>
-    <t>4.62011e-03</t>
-  </si>
-  <si>
-    <t>-5.94900e-03</t>
-  </si>
-  <si>
-    <t>1.51892e-02</t>
-  </si>
-  <si>
-    <t>2.26588e-03</t>
-  </si>
-  <si>
-    <t>-1.14563e-02</t>
-  </si>
-  <si>
-    <t>1.59880e-02</t>
-  </si>
-  <si>
-    <t>-5.80727e-03</t>
-  </si>
-  <si>
-    <t>-1.35362e-02</t>
-  </si>
-  <si>
-    <t>1.92171e-03</t>
-  </si>
-  <si>
-    <t>3.13194e-02</t>
-  </si>
-  <si>
-    <t>-1.71706e-02</t>
-  </si>
-  <si>
-    <t>7.98094e-02</t>
-  </si>
-  <si>
-    <t>9.96860e-03</t>
-  </si>
-  <si>
-    <t>-1.35911e-03</t>
-  </si>
-  <si>
-    <t>2.12963e-02</t>
-  </si>
-  <si>
-    <t>8.25006e-03</t>
-  </si>
-  <si>
-    <t>-4.73109e-03</t>
-  </si>
-  <si>
-    <t>2.12312e-02</t>
-  </si>
-  <si>
-    <t>1.35150e-02</t>
-  </si>
-  <si>
-    <t>-6.00103e-03</t>
-  </si>
-  <si>
-    <t>3.30310e-02</t>
+    <t>0.159339</t>
+  </si>
+  <si>
+    <t>1.72492e-03</t>
+  </si>
+  <si>
+    <t>0.316954</t>
+  </si>
+  <si>
+    <t>2.67099e-02</t>
+  </si>
+  <si>
+    <t>9.96814e-03</t>
+  </si>
+  <si>
+    <t>4.34518e-02</t>
+  </si>
+  <si>
+    <t>5.52010e-03</t>
+  </si>
+  <si>
+    <t>-8.94841e-03</t>
+  </si>
+  <si>
+    <t>1.99886e-02</t>
+  </si>
+  <si>
+    <t>2.85365e-02</t>
+  </si>
+  <si>
+    <t>-1.93783e-02</t>
+  </si>
+  <si>
+    <t>7.64513e-02</t>
+  </si>
+  <si>
+    <t>1.49897e-02</t>
+  </si>
+  <si>
+    <t>-1.37446e-03</t>
+  </si>
+  <si>
+    <t>3.13539e-02</t>
+  </si>
+  <si>
+    <t>2.95245e-02</t>
+  </si>
+  <si>
+    <t>-8.49385e-04</t>
+  </si>
+  <si>
+    <t>5.98983e-02</t>
+  </si>
+  <si>
+    <t>0.174314</t>
+  </si>
+  <si>
+    <t>-2.91606e-03</t>
+  </si>
+  <si>
+    <t>0.351544</t>
+  </si>
+  <si>
+    <t>0.188169</t>
+  </si>
+  <si>
+    <t>5.81807e-02</t>
+  </si>
+  <si>
+    <t>0.318158</t>
+  </si>
+  <si>
+    <t>3.21564e-02</t>
+  </si>
+  <si>
+    <t>2.08273e-02</t>
+  </si>
+  <si>
+    <t>4.34855e-02</t>
+  </si>
+  <si>
+    <t>-1.34675e-02</t>
+  </si>
+  <si>
+    <t>-2.23686e-02</t>
+  </si>
+  <si>
+    <t>-4.56631e-03</t>
+  </si>
+  <si>
+    <t>-8.38263e-03</t>
+  </si>
+  <si>
+    <t>-2.21052e-02</t>
+  </si>
+  <si>
+    <t>5.33989e-03</t>
+  </si>
+  <si>
+    <t>-6.56359e-04</t>
+  </si>
+  <si>
+    <t>-3.27319e-02</t>
+  </si>
+  <si>
+    <t>3.14192e-02</t>
+  </si>
+  <si>
+    <t>-2.00084e-02</t>
+  </si>
+  <si>
+    <t>-6.48791e-02</t>
+  </si>
+  <si>
+    <t>2.48623e-02</t>
   </si>
   <si>
     <t>npv_7</t>
   </si>
   <si>
-    <t>0.108657</t>
-  </si>
-  <si>
-    <t>-8.91070e-02</t>
-  </si>
-  <si>
-    <t>0.306422</t>
-  </si>
-  <si>
-    <t>7.95910e-03</t>
-  </si>
-  <si>
-    <t>5.09046e-04</t>
-  </si>
-  <si>
-    <t>1.54091e-02</t>
-  </si>
-  <si>
-    <t>4.03167e-04</t>
-  </si>
-  <si>
-    <t>-9.67534e-03</t>
-  </si>
-  <si>
-    <t>1.04817e-02</t>
-  </si>
-  <si>
-    <t>1.09562e-02</t>
-  </si>
-  <si>
-    <t>-2.72741e-03</t>
-  </si>
-  <si>
-    <t>2.46399e-02</t>
-  </si>
-  <si>
-    <t>-1.11962e-03</t>
-  </si>
-  <si>
-    <t>-1.04466e-02</t>
-  </si>
-  <si>
-    <t>8.20737e-03</t>
-  </si>
-  <si>
-    <t>4.93145e-03</t>
-  </si>
-  <si>
-    <t>-1.87819e-02</t>
-  </si>
-  <si>
-    <t>2.86448e-02</t>
-  </si>
-  <si>
-    <t>9.17158e-03</t>
-  </si>
-  <si>
-    <t>-6.53068e-03</t>
-  </si>
-  <si>
-    <t>2.48738e-02</t>
-  </si>
-  <si>
-    <t>2.70897e-03</t>
-  </si>
-  <si>
-    <t>-1.65144e-02</t>
-  </si>
-  <si>
-    <t>2.19324e-02</t>
-  </si>
-  <si>
-    <t>2.89566e-02</t>
-  </si>
-  <si>
-    <t>-2.55624e-03</t>
-  </si>
-  <si>
-    <t>6.04693e-02</t>
+    <t>0.114125</t>
+  </si>
+  <si>
+    <t>-9.75870e-02</t>
+  </si>
+  <si>
+    <t>0.325837</t>
+  </si>
+  <si>
+    <t>2.52389e-02</t>
+  </si>
+  <si>
+    <t>1.49779e-02</t>
+  </si>
+  <si>
+    <t>3.54999e-02</t>
+  </si>
+  <si>
+    <t>5.64422e-03</t>
+  </si>
+  <si>
+    <t>-4.57643e-03</t>
+  </si>
+  <si>
+    <t>1.58649e-02</t>
+  </si>
+  <si>
+    <t>2.49075e-03</t>
+  </si>
+  <si>
+    <t>-2.08295e-02</t>
+  </si>
+  <si>
+    <t>2.58110e-02</t>
+  </si>
+  <si>
+    <t>1.57642e-02</t>
+  </si>
+  <si>
+    <t>-2.52016e-03</t>
+  </si>
+  <si>
+    <t>3.40486e-02</t>
+  </si>
+  <si>
+    <t>5.15070e-02</t>
+  </si>
+  <si>
+    <t>8.51224e-03</t>
+  </si>
+  <si>
+    <t>9.45018e-02</t>
+  </si>
+  <si>
+    <t>0.100193</t>
+  </si>
+  <si>
+    <t>-0.141210</t>
+  </si>
+  <si>
+    <t>0.341596</t>
+  </si>
+  <si>
+    <t>3.66792e-02</t>
+  </si>
+  <si>
+    <t>-0.228151</t>
+  </si>
+  <si>
+    <t>0.301510</t>
+  </si>
+  <si>
+    <t>2.60388e-02</t>
+  </si>
+  <si>
+    <t>1.54343e-02</t>
+  </si>
+  <si>
+    <t>3.66434e-02</t>
+  </si>
+  <si>
+    <t>-1.25901e-02</t>
+  </si>
+  <si>
+    <t>-2.87819e-02</t>
+  </si>
+  <si>
+    <t>3.60159e-03</t>
+  </si>
+  <si>
+    <t>5.29063e-03</t>
+  </si>
+  <si>
+    <t>-6.34005e-03</t>
+  </si>
+  <si>
+    <t>1.69213e-02</t>
+  </si>
+  <si>
+    <t>-1.14087e-02</t>
+  </si>
+  <si>
+    <t>-4.32347e-02</t>
+  </si>
+  <si>
+    <t>2.04173e-02</t>
+  </si>
+  <si>
+    <t>-3.87129e-03</t>
+  </si>
+  <si>
+    <t>-4.20099e-02</t>
+  </si>
+  <si>
+    <t>3.42673e-02</t>
   </si>
   <si>
     <t>npv_8</t>
   </si>
   <si>
-    <t>3.32352e-02</t>
-  </si>
-  <si>
-    <t>-9.07741e-02</t>
-  </si>
-  <si>
-    <t>0.157244</t>
-  </si>
-  <si>
-    <t>1.20821e-02</t>
-  </si>
-  <si>
-    <t>3.91726e-03</t>
-  </si>
-  <si>
-    <t>2.02470e-02</t>
-  </si>
-  <si>
-    <t>1.70924e-02</t>
-  </si>
-  <si>
-    <t>7.30744e-04</t>
-  </si>
-  <si>
-    <t>3.34540e-02</t>
-  </si>
-  <si>
-    <t>6.15108e-03</t>
-  </si>
-  <si>
-    <t>-3.54501e-03</t>
-  </si>
-  <si>
-    <t>1.58472e-02</t>
-  </si>
-  <si>
-    <t>-3.33076e-05</t>
-  </si>
-  <si>
-    <t>-7.51078e-03</t>
-  </si>
-  <si>
-    <t>7.44416e-03</t>
-  </si>
-  <si>
-    <t>4.99484e-04</t>
-  </si>
-  <si>
-    <t>-2.47347e-02</t>
-  </si>
-  <si>
-    <t>2.57337e-02</t>
-  </si>
-  <si>
-    <t>3.47330e-03</t>
-  </si>
-  <si>
-    <t>-1.36804e-02</t>
-  </si>
-  <si>
-    <t>2.06270e-02</t>
-  </si>
-  <si>
-    <t>-1.07834e-03</t>
-  </si>
-  <si>
-    <t>-1.73270e-02</t>
-  </si>
-  <si>
-    <t>1.51703e-02</t>
-  </si>
-  <si>
-    <t>1.97644e-02</t>
-  </si>
-  <si>
-    <t>-1.87806e-03</t>
-  </si>
-  <si>
-    <t>4.14068e-02</t>
+    <t>4.58528e-02</t>
+  </si>
+  <si>
+    <t>-7.79931e-02</t>
+  </si>
+  <si>
+    <t>0.169699</t>
+  </si>
+  <si>
+    <t>1.52052e-02</t>
+  </si>
+  <si>
+    <t>4.78751e-03</t>
+  </si>
+  <si>
+    <t>2.56230e-02</t>
+  </si>
+  <si>
+    <t>2.91410e-02</t>
+  </si>
+  <si>
+    <t>1.95796e-02</t>
+  </si>
+  <si>
+    <t>3.87025e-02</t>
+  </si>
+  <si>
+    <t>-1.23763e-03</t>
+  </si>
+  <si>
+    <t>-2.57853e-02</t>
+  </si>
+  <si>
+    <t>2.33100e-02</t>
+  </si>
+  <si>
+    <t>1.37111e-03</t>
+  </si>
+  <si>
+    <t>-2.04652e-02</t>
+  </si>
+  <si>
+    <t>2.32074e-02</t>
+  </si>
+  <si>
+    <t>2.76731e-02</t>
+  </si>
+  <si>
+    <t>8.15679e-03</t>
+  </si>
+  <si>
+    <t>4.71895e-02</t>
+  </si>
+  <si>
+    <t>5.18757e-02</t>
+  </si>
+  <si>
+    <t>-8.58076e-02</t>
+  </si>
+  <si>
+    <t>0.189559</t>
+  </si>
+  <si>
+    <t>1.45203e-02</t>
+  </si>
+  <si>
+    <t>-0.101654</t>
+  </si>
+  <si>
+    <t>0.130695</t>
+  </si>
+  <si>
+    <t>1.68629e-02</t>
+  </si>
+  <si>
+    <t>4.46938e-03</t>
+  </si>
+  <si>
+    <t>2.92565e-02</t>
+  </si>
+  <si>
+    <t>1.34703e-02</t>
+  </si>
+  <si>
+    <t>3.68613e-03</t>
+  </si>
+  <si>
+    <t>2.32545e-02</t>
+  </si>
+  <si>
+    <t>1.66352e-02</t>
+  </si>
+  <si>
+    <t>3.08131e-03</t>
+  </si>
+  <si>
+    <t>3.01891e-02</t>
+  </si>
+  <si>
+    <t>-7.43500e-03</t>
+  </si>
+  <si>
+    <t>-2.91898e-02</t>
+  </si>
+  <si>
+    <t>1.43198e-02</t>
+  </si>
+  <si>
+    <t>-1.85953e-02</t>
+  </si>
+  <si>
+    <t>-4.96195e-02</t>
+  </si>
+  <si>
+    <t>1.24289e-02</t>
   </si>
   <si>
     <t>npv_9</t>
   </si>
   <si>
-    <t>-3.76492e-03</t>
-  </si>
-  <si>
-    <t>-2.15221e-02</t>
-  </si>
-  <si>
-    <t>1.39923e-02</t>
-  </si>
-  <si>
-    <t>9.19788e-04</t>
-  </si>
-  <si>
-    <t>-4.73277e-04</t>
-  </si>
-  <si>
-    <t>2.31285e-03</t>
-  </si>
-  <si>
-    <t>5.59121e-03</t>
-  </si>
-  <si>
-    <t>-8.39827e-03</t>
-  </si>
-  <si>
-    <t>1.95807e-02</t>
-  </si>
-  <si>
-    <t>5.65907e-04</t>
-  </si>
-  <si>
-    <t>-2.64889e-03</t>
-  </si>
-  <si>
-    <t>3.78070e-03</t>
-  </si>
-  <si>
-    <t>3.37410e-03</t>
-  </si>
-  <si>
-    <t>-4.21774e-03</t>
-  </si>
-  <si>
-    <t>1.09659e-02</t>
-  </si>
-  <si>
-    <t>8.60687e-03</t>
-  </si>
-  <si>
-    <t>-1.21718e-02</t>
-  </si>
-  <si>
-    <t>2.93855e-02</t>
-  </si>
-  <si>
-    <t>-4.26351e-03</t>
-  </si>
-  <si>
-    <t>-2.55904e-02</t>
-  </si>
-  <si>
-    <t>1.70634e-02</t>
-  </si>
-  <si>
-    <t>-1.19596e-02</t>
-  </si>
-  <si>
-    <t>-3.43307e-02</t>
-  </si>
-  <si>
-    <t>1.04115e-02</t>
-  </si>
-  <si>
-    <t>2.19634e-02</t>
-  </si>
-  <si>
-    <t>-5.73920e-03</t>
-  </si>
-  <si>
-    <t>4.96659e-02</t>
+    <t>-3.74701e-03</t>
+  </si>
+  <si>
+    <t>-2.23404e-02</t>
+  </si>
+  <si>
+    <t>1.48464e-02</t>
+  </si>
+  <si>
+    <t>1.37096e-02</t>
+  </si>
+  <si>
+    <t>7.97835e-03</t>
+  </si>
+  <si>
+    <t>1.94409e-02</t>
+  </si>
+  <si>
+    <t>1.11863e-03</t>
+  </si>
+  <si>
+    <t>-1.41751e-02</t>
+  </si>
+  <si>
+    <t>1.64123e-02</t>
+  </si>
+  <si>
+    <t>8.51796e-03</t>
+  </si>
+  <si>
+    <t>-1.18640e-02</t>
+  </si>
+  <si>
+    <t>2.88999e-02</t>
+  </si>
+  <si>
+    <t>5.27122e-03</t>
+  </si>
+  <si>
+    <t>-1.05603e-03</t>
+  </si>
+  <si>
+    <t>1.15985e-02</t>
+  </si>
+  <si>
+    <t>4.47261e-02</t>
+  </si>
+  <si>
+    <t>1.13279e-02</t>
+  </si>
+  <si>
+    <t>7.81243e-02</t>
+  </si>
+  <si>
+    <t>-2.03464e-03</t>
+  </si>
+  <si>
+    <t>-2.06529e-02</t>
+  </si>
+  <si>
+    <t>1.65836e-02</t>
+  </si>
+  <si>
+    <t>-5.16277e-03</t>
+  </si>
+  <si>
+    <t>-2.93688e-02</t>
+  </si>
+  <si>
+    <t>1.90432e-02</t>
+  </si>
+  <si>
+    <t>1.50128e-02</t>
+  </si>
+  <si>
+    <t>5.46199e-03</t>
+  </si>
+  <si>
+    <t>2.45635e-02</t>
+  </si>
+  <si>
+    <t>-1.86153e-02</t>
+  </si>
+  <si>
+    <t>-3.30879e-02</t>
+  </si>
+  <si>
+    <t>-4.14270e-03</t>
+  </si>
+  <si>
+    <t>5.62479e-03</t>
+  </si>
+  <si>
+    <t>-3.17771e-03</t>
+  </si>
+  <si>
+    <t>1.44273e-02</t>
+  </si>
+  <si>
+    <t>-1.86801e-02</t>
+  </si>
+  <si>
+    <t>-4.75566e-02</t>
+  </si>
+  <si>
+    <t>1.01964e-02</t>
+  </si>
+  <si>
+    <t>-8.29127e-03</t>
+  </si>
+  <si>
+    <t>-4.30985e-02</t>
+  </si>
+  <si>
+    <t>2.65160e-02</t>
   </si>
   <si>
     <t>npv_10</t>
   </si>
   <si>
-    <t>7.60323e-04</t>
-  </si>
-  <si>
-    <t>-1.39757e-02</t>
-  </si>
-  <si>
-    <t>1.54963e-02</t>
-  </si>
-  <si>
-    <t>-7.48260e-04</t>
-  </si>
-  <si>
-    <t>-3.26795e-03</t>
-  </si>
-  <si>
-    <t>1.77143e-03</t>
-  </si>
-  <si>
-    <t>3.58282e-04</t>
-  </si>
-  <si>
-    <t>-1.69806e-02</t>
-  </si>
-  <si>
-    <t>1.76971e-02</t>
-  </si>
-  <si>
-    <t>-3.59242e-04</t>
-  </si>
-  <si>
-    <t>-2.55743e-03</t>
-  </si>
-  <si>
-    <t>1.83894e-03</t>
-  </si>
-  <si>
-    <t>3.15826e-03</t>
-  </si>
-  <si>
-    <t>-4.79636e-03</t>
-  </si>
-  <si>
-    <t>1.11129e-02</t>
-  </si>
-  <si>
-    <t>1.04262e-03</t>
-  </si>
-  <si>
-    <t>-1.36195e-02</t>
-  </si>
-  <si>
-    <t>1.57047e-02</t>
-  </si>
-  <si>
-    <t>1.05992e-02</t>
-  </si>
-  <si>
-    <t>3.31486e-03</t>
-  </si>
-  <si>
-    <t>1.78836e-02</t>
-  </si>
-  <si>
-    <t>1.06608e-02</t>
-  </si>
-  <si>
-    <t>1.55663e-03</t>
-  </si>
-  <si>
-    <t>1.97649e-02</t>
-  </si>
-  <si>
-    <t>4.43090e-04</t>
-  </si>
-  <si>
-    <t>-1.23194e-02</t>
-  </si>
-  <si>
-    <t>1.32056e-02</t>
+    <t>1.46971e-03</t>
+  </si>
+  <si>
+    <t>-1.39137e-02</t>
+  </si>
+  <si>
+    <t>1.68531e-02</t>
+  </si>
+  <si>
+    <t>1.26124e-02</t>
+  </si>
+  <si>
+    <t>6.78804e-04</t>
+  </si>
+  <si>
+    <t>2.45460e-02</t>
+  </si>
+  <si>
+    <t>-1.30719e-03</t>
+  </si>
+  <si>
+    <t>-2.48676e-02</t>
+  </si>
+  <si>
+    <t>2.22532e-02</t>
+  </si>
+  <si>
+    <t>1.74988e-03</t>
+  </si>
+  <si>
+    <t>-1.27641e-02</t>
+  </si>
+  <si>
+    <t>1.62639e-02</t>
+  </si>
+  <si>
+    <t>1.13022e-02</t>
+  </si>
+  <si>
+    <t>8.84907e-04</t>
+  </si>
+  <si>
+    <t>2.17196e-02</t>
+  </si>
+  <si>
+    <t>2.86378e-02</t>
+  </si>
+  <si>
+    <t>1.33742e-03</t>
+  </si>
+  <si>
+    <t>5.59382e-02</t>
+  </si>
+  <si>
+    <t>3.38360e-03</t>
+  </si>
+  <si>
+    <t>-1.24628e-02</t>
+  </si>
+  <si>
+    <t>1.92300e-02</t>
+  </si>
+  <si>
+    <t>1.53421e-03</t>
+  </si>
+  <si>
+    <t>-1.64326e-02</t>
+  </si>
+  <si>
+    <t>1.95010e-02</t>
+  </si>
+  <si>
+    <t>1.18934e-02</t>
+  </si>
+  <si>
+    <t>4.93302e-04</t>
+  </si>
+  <si>
+    <t>2.32934e-02</t>
+  </si>
+  <si>
+    <t>-1.54324e-03</t>
+  </si>
+  <si>
+    <t>-1.30457e-02</t>
+  </si>
+  <si>
+    <t>9.95921e-03</t>
+  </si>
+  <si>
+    <t>9.57552e-03</t>
+  </si>
+  <si>
+    <t>1.06397e-03</t>
+  </si>
+  <si>
+    <t>1.80871e-02</t>
+  </si>
+  <si>
+    <t>-7.71749e-03</t>
+  </si>
+  <si>
+    <t>-2.55163e-02</t>
+  </si>
+  <si>
+    <t>1.00814e-02</t>
+  </si>
+  <si>
+    <t>-2.14461e-02</t>
+  </si>
+  <si>
+    <t>-3.71407e-02</t>
+  </si>
+  <si>
+    <t>-5.75158e-03</t>
   </si>
   <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-0.364850</t>
-  </si>
-  <si>
-    <t>-1.005944</t>
-  </si>
-  <si>
-    <t>0.276244</t>
-  </si>
-  <si>
-    <t>-0.936929</t>
-  </si>
-  <si>
-    <t>-3.095889</t>
-  </si>
-  <si>
-    <t>1.222030</t>
-  </si>
-  <si>
-    <t>0.108442</t>
-  </si>
-  <si>
-    <t>-0.428362</t>
-  </si>
-  <si>
-    <t>0.645246</t>
-  </si>
-  <si>
-    <t>4.851368</t>
-  </si>
-  <si>
-    <t>2.028745</t>
-  </si>
-  <si>
-    <t>7.673992</t>
-  </si>
-  <si>
-    <t>415.0168</t>
-  </si>
-  <si>
-    <t>320.9633</t>
-  </si>
-  <si>
-    <t>509.0702</t>
+    <t>4.24802e-02</t>
+  </si>
+  <si>
+    <t>-4.368733</t>
+  </si>
+  <si>
+    <t>4.453693</t>
+  </si>
+  <si>
+    <t>114.7393</t>
+  </si>
+  <si>
+    <t>75.08396</t>
+  </si>
+  <si>
+    <t>154.3946</t>
+  </si>
+  <si>
+    <t>-0.984976</t>
+  </si>
+  <si>
+    <t>-1.489296</t>
+  </si>
+  <si>
+    <t>-0.480656</t>
+  </si>
+  <si>
+    <t>4.490756</t>
+  </si>
+  <si>
+    <t>3.543412</t>
+  </si>
+  <si>
+    <t>5.438099</t>
+  </si>
+  <si>
+    <t>997.1119</t>
+  </si>
+  <si>
+    <t>814.4341</t>
+  </si>
+  <si>
+    <t>1,179.790</t>
+  </si>
+  <si>
+    <t>1,136.839</t>
+  </si>
+  <si>
+    <t>794.0842</t>
+  </si>
+  <si>
+    <t>1,479.594</t>
+  </si>
+  <si>
+    <t>-0.845670</t>
+  </si>
+  <si>
+    <t>-8.406592</t>
+  </si>
+  <si>
+    <t>6.715253</t>
+  </si>
+  <si>
+    <t>-2.116205</t>
+  </si>
+  <si>
+    <t>-10.08546</t>
+  </si>
+  <si>
+    <t>5.853049</t>
+  </si>
+  <si>
+    <t>134.8584</t>
+  </si>
+  <si>
+    <t>91.55122</t>
+  </si>
+  <si>
+    <t>178.1657</t>
+  </si>
+  <si>
+    <t>-2.431214</t>
+  </si>
+  <si>
+    <t>-2.722124</t>
+  </si>
+  <si>
+    <t>-2.140303</t>
+  </si>
+  <si>
+    <t>-3.17484e-02</t>
+  </si>
+  <si>
+    <t>-0.652311</t>
+  </si>
+  <si>
+    <t>0.588814</t>
+  </si>
+  <si>
+    <t>775.5132</t>
+  </si>
+  <si>
+    <t>488.7075</t>
+  </si>
+  <si>
+    <t>1,062.319</t>
+  </si>
+  <si>
+    <t>954.7947</t>
+  </si>
+  <si>
+    <t>541.4955</t>
+  </si>
+  <si>
+    <t>1,368.094</t>
   </si>
   <si>
     <t>Observations</t>
@@ -1207,28 +1756,40 @@
     <t>427</t>
   </si>
   <si>
-    <t>5,437</t>
-  </si>
-  <si>
-    <t>4,335</t>
-  </si>
-  <si>
-    <t>5,155</t>
-  </si>
-  <si>
-    <t>3,143</t>
-  </si>
-  <si>
-    <t>1,564</t>
-  </si>
-  <si>
-    <t>3,618</t>
-  </si>
-  <si>
-    <t>3,653</t>
-  </si>
-  <si>
-    <t>3,633</t>
+    <t>3,064</t>
+  </si>
+  <si>
+    <t>2,675</t>
+  </si>
+  <si>
+    <t>1,493</t>
+  </si>
+  <si>
+    <t>2,302</t>
+  </si>
+  <si>
+    <t>2,286</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>578</t>
   </si>
   <si>
     <t>Number of groups</t>
@@ -1243,19 +1804,25 @@
     <t>160</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>140</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>Country FE</t>
@@ -2151,18 +2718,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69B4C11-873A-4F4B-BC8C-40A6D3E40E62}">
-  <dimension ref="A2:AB22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED14FE-3534-46FB-AA7D-18A24E8215E8}">
+  <dimension ref="A2:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="28" width="10.77734375" customWidth="1"/>
+    <col min="2" max="40" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,94 +2814,166 @@
       <c r="AB2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2419,1126 +3058,1630 @@
       <c r="AB4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AC4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>95</v>
+        <v>123</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>123</v>
+        <v>163</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>151</v>
+        <v>203</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>179</v>
+        <v>243</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>207</v>
+        <v>283</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>235</v>
+        <v>323</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>262</v>
+        <v>362</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>263</v>
+        <v>363</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>291</v>
+        <v>403</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>293</v>
+        <v>417</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>315</v>
+        <v>439</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>319</v>
+        <v>443</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>320</v>
+        <v>456</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>321</v>
+        <v>457</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>322</v>
+        <v>458</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>328</v>
+        <v>464</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>329</v>
+        <v>465</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>330</v>
+        <v>466</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>332</v>
+        <v>468</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>333</v>
+        <v>469</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>334</v>
+        <v>470</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>336</v>
+        <v>472</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>337</v>
+        <v>473</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>338</v>
+        <v>474</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>339</v>
+        <v>475</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>340</v>
+        <v>476</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>341</v>
+        <v>477</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>343</v>
+        <v>479</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>344</v>
+        <v>480</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>347</v>
+        <v>483</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>348</v>
+        <v>496</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>349</v>
+        <v>497</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>350</v>
+        <v>498</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>351</v>
+        <v>499</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>354</v>
+        <v>502</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>355</v>
+        <v>503</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>357</v>
+        <v>505</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>358</v>
+        <v>506</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>359</v>
+        <v>507</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>360</v>
+        <v>508</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>362</v>
+        <v>510</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>363</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>364</v>
+        <v>512</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>367</v>
+        <v>515</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>368</v>
+        <v>516</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>369</v>
+        <v>517</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>370</v>
+        <v>518</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>371</v>
+        <v>519</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>373</v>
+        <v>521</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>374</v>
+        <v>522</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>375</v>
+        <v>523</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>376</v>
+        <v>536</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>377</v>
+        <v>537</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>377</v>
+        <v>538</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>377</v>
+        <v>539</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>377</v>
+        <v>541</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>378</v>
+        <v>543</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>379</v>
+        <v>544</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>381</v>
+        <v>546</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>382</v>
+        <v>547</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>384</v>
+        <v>549</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>388</v>
+        <v>553</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>389</v>
+        <v>554</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>390</v>
+        <v>555</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>391</v>
+        <v>556</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>377</v>
+        <v>558</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>377</v>
+        <v>559</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>377</v>
+        <v>560</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>377</v>
+        <v>561</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>377</v>
+        <v>562</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>377</v>
+        <v>563</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -3623,13 +4766,49 @@
       <c r="AB18" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="AC18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>394</v>
+        <v>577</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>0</v>
@@ -3638,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>395</v>
+        <v>578</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
@@ -3647,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>396</v>
+        <v>579</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>0</v>
@@ -3656,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>397</v>
+        <v>580</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>0</v>
@@ -3665,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>0</v>
@@ -3674,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>0</v>
@@ -3683,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>0</v>
@@ -3692,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>0</v>
@@ -3701,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>402</v>
+        <v>585</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>0</v>
@@ -3709,13 +4888,49 @@
       <c r="AB19" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="AC19" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>403</v>
+        <v>590</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>404</v>
+        <v>591</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>0</v>
@@ -3724,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>405</v>
+        <v>592</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -3733,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>406</v>
+        <v>593</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>0</v>
@@ -3742,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>407</v>
+        <v>594</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>0</v>
@@ -3751,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>408</v>
+        <v>595</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>0</v>
@@ -3760,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>409</v>
+        <v>595</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>0</v>
@@ -3769,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>410</v>
+        <v>596</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>0</v>
@@ -3778,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>411</v>
+        <v>597</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>0</v>
@@ -3787,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>411</v>
+        <v>591</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>0</v>
@@ -3795,13 +5010,49 @@
       <c r="AB20" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="AC20" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>412</v>
+        <v>601</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>0</v>
@@ -3810,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
@@ -3819,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>0</v>
@@ -3828,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>0</v>
@@ -3837,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>0</v>
@@ -3846,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>0</v>
@@ -3855,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>0</v>
@@ -3864,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>0</v>
@@ -3873,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>0</v>
@@ -3881,13 +5132,49 @@
       <c r="AB21" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="AC21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>414</v>
+        <v>603</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>0</v>
@@ -3896,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -3905,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>0</v>
@@ -3914,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>0</v>
@@ -3923,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>0</v>
@@ -3932,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>0</v>
@@ -3941,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>0</v>
@@ -3950,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="X22" s="6" t="s">
         <v>0</v>
@@ -3959,12 +5246,48 @@
         <v>0</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AB22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="6" t="s">
         <v>0</v>
       </c>
     </row>
